--- a/life_table2.xlsx
+++ b/life_table2.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT\NRES-470\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Documents\GitHub\NRES-470\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27420" windowHeight="10605"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="life_table2" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -617,9 +617,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -652,9 +652,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -836,7 +836,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -856,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -867,10 +869,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>315</v>
+        <v>85</v>
       </c>
       <c r="C3">
-        <v>1.33</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -878,10 +880,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>245</v>
+        <v>40</v>
       </c>
       <c r="C4">
-        <v>0.14000000000000001</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -889,10 +891,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="C5">
-        <v>0.25</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -900,10 +902,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>0.1</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">

--- a/life_table2.xlsx
+++ b/life_table2.xlsx
@@ -837,7 +837,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -869,10 +869,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C3">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -880,7 +880,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>5.8</v>
@@ -891,10 +891,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -905,7 +905,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">

--- a/life_table2.xlsx
+++ b/life_table2.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Documents\GitHub\NRES-470\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF66E985-DF6C-4F5C-93C9-867476996459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="life_table2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">life_table2!$A$2:$A$7</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">life_table2!$E$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">life_table2!$E$2:$E$7</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -33,7 +52,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -833,16 +852,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -853,7 +872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -864,51 +883,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C3">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C4">
-        <v>5.8</v>
+        <v>2.1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C5">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>4.2</v>
+        <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>

--- a/life_table2.xlsx
+++ b/life_table2.xlsx
@@ -1,39 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Documents\GitHub\NRES-470\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT\NRES-470\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF66E985-DF6C-4F5C-93C9-867476996459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="life_table2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">life_table2!$A$2:$A$7</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">life_table2!$E$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">life_table2!$E$2:$E$7</definedName>
-  </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -52,7 +33,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -852,16 +833,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -872,62 +853,62 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>85</v>
+        <v>175</v>
       </c>
       <c r="C3">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="C4">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C5">
         <v>2.9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
